--- a/excel-barcode-url-fetcher/data/data_with_images.xlsx
+++ b/excel-barcode-url-fetcher/data/data_with_images.xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\scripts\excel-barcode-url-fetcher\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BD4AB0-1FB4-4A7F-BC84-881BC271C649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="1950" yWindow="1125" windowWidth="13935" windowHeight="14475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="With Images" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="With Images" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Barcode</t>
   </si>
   <si>
-    <t>Url</t>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Alt Text</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
   <si>
     <t>4810089524917</t>
@@ -35,113 +31,47 @@
     <t>https://bild-shop.by/images/products/jpg/full/4810089524917_1.jpg</t>
   </si>
   <si>
+    <t>Гетры женские 1691, р. универсальный (23-29), 465 т. серый купить в Полоцке</t>
+  </si>
+  <si>
     <t>4870007340524</t>
   </si>
   <si>
     <t>https://bitrix.aptekaplus.kz/cdn/?q=/upload/iblock/c98/rusalochkasoldlyavannchereda500gr.jpg</t>
   </si>
   <si>
+    <t>Купить РУСАЛОЧКА Соль для ванн череда 500гр в Алматы, цена 390.00 тг..</t>
+  </si>
+  <si>
     <t>4870007341415</t>
   </si>
   <si>
     <t>https://apteka84.kz/files/items/items_83612/4870007341415.jpg</t>
   </si>
   <si>
+    <t>Аптека №84. Доставка лекарств на дом и в офис.</t>
+  </si>
+  <si>
     <t>4600999011504</t>
   </si>
   <si>
     <t>https://anytos.ru/upload/iblock/7cd/uk5p1ads1sgmi0yiyro9ny1rjenoqw2y.jpg</t>
   </si>
   <si>
-    <t>4751023292441</t>
-  </si>
-  <si>
-    <t>https://collectiononline.ru/wp-content/uploads/4751023292441.jpg</t>
-  </si>
-  <si>
-    <t>4600999010842</t>
-  </si>
-  <si>
-    <t>https://nonary.kz/upload/iblock/953/atbrcgkwyl37d72w8ryuzg6jqfn7x9eh.jpg</t>
-  </si>
-  <si>
-    <t>4600999010828</t>
-  </si>
-  <si>
-    <t>https://resources.cdn-kaspi.kz/img/m/p/h9c/he9/85828088692766.jpg?format=gallery-large</t>
-  </si>
-  <si>
-    <t>4600999010804</t>
-  </si>
-  <si>
-    <t>https://cosmart.kz/upload/iblock/37a/mwks9xc8pf0zjfxkwfbm3ic4y942atdc.jpg</t>
-  </si>
-  <si>
-    <t>4600999011337</t>
-  </si>
-  <si>
-    <t>https://selvis.com/web/images/f0b69f0b-a46d-4c9f-a445-9181f7056682.png</t>
-  </si>
-  <si>
-    <t>4607068629714</t>
-  </si>
-  <si>
-    <t>https://m.onlinetrade.ru/img/items/m/prosto_chisto_mochalka_dlya_myt.pos._universalnaya_2sht._maxi_1632594_1.jpg</t>
-  </si>
-  <si>
-    <t>4607068627291</t>
-  </si>
-  <si>
-    <t>http://api.bonjour-dv.ru/public_v1/products/78368/images/36383.jpg?h=400</t>
-  </si>
-  <si>
-    <t>4607068621817</t>
-  </si>
-  <si>
-    <t>https://ovdi.ru/upload/iblock/6af/ywrizzigirbkzlj87s9yvcnlvoflsdkx.jpg</t>
-  </si>
-  <si>
-    <t>4607068621824</t>
-  </si>
-  <si>
-    <t>https://basket-10.wbbasket.ru/vol1549/part154948/154948451/images/big/1.webp</t>
-  </si>
-  <si>
-    <t>4870007340562</t>
-  </si>
-  <si>
-    <t>https://st.europharma.kz/cache/product/8739/x800_46274.jpeg</t>
-  </si>
-  <si>
-    <t>4870007340593</t>
-  </si>
-  <si>
-    <t>https://st.europharma.kz/cache/product/8741/x800_46275.jpeg</t>
-  </si>
-  <si>
-    <t>4640130799090</t>
-  </si>
-  <si>
-    <t>https://www.bigcom.ru/upload/iblock/511/0ue2wgbuptgt82xfp7bjcffqkoj50i7k.png</t>
-  </si>
-  <si>
-    <t>4640130799076</t>
-  </si>
-  <si>
-    <t>https://m.onlinetrade.ru/img/items/m/ceramed_enzimnaya_400_ml_3115292_1.jpg</t>
+    <t>Палочки ватные AURA Beauty п/э пакет 400шт/уп купить оптом, цена от 187.74  руб. 4600999011504</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,14 +94,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -181,6 +114,167 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,272 +598,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="30" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4810089524917</v>
+    <row r="2" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4870007340524</v>
+    <row r="3" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4870007341415</v>
+    <row r="4" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4600999011504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4751023292441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4600999010842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4600999010828</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4600999010804</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4600999011337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4607068629714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4607068627291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4607068621817</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4607068621824</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4870007340562</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4870007340593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4640130799090</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4640130799076</v>
+    <row r="5" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B18" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B17" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel-barcode-url-fetcher/data/data_with_images.xlsx
+++ b/excel-barcode-url-fetcher/data/data_with_images.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0457128E-E3D4-4757-B3FF-3B1AC7BAEB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="With Images" state="visible" r:id="rId4"/>
+    <sheet name="With Images" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Barcode</t>
   </si>
@@ -59,19 +63,235 @@
   </si>
   <si>
     <t>Палочки ватные AURA Beauty п/э пакет 400шт/уп купить оптом, цена от 187.74  руб. 4600999011504</t>
+  </si>
+  <si>
+    <t>4751023292441</t>
+  </si>
+  <si>
+    <t>https://collectiononline.ru/wp-content/uploads/4751023292441.jpg</t>
+  </si>
+  <si>
+    <t>Aura Крем для рук с глицерином и экстрактом алоэ, 75 мл купить в  интернет-магазине с доставкой | Collectiononline.ru</t>
+  </si>
+  <si>
+    <t>4600999010842</t>
+  </si>
+  <si>
+    <t>https://nonary.kz/upload/iblock/953/atbrcgkwyl37d72w8ryuzg6jqfn7x9eh.jpg</t>
+  </si>
+  <si>
+    <t>L Qualita Перчатки Universal латексные 4600999010842 - Nonary</t>
+  </si>
+  <si>
+    <t>4600999010828</t>
+  </si>
+  <si>
+    <t>https://resources.cdn-kaspi.kz/img/m/p/h9c/he9/85828088692766.jpg?format=gallery-large</t>
+  </si>
+  <si>
+    <t>Перчатки Qualita universal M: купить товары для дома | Cosmart.kz</t>
+  </si>
+  <si>
+    <t>4600999010804</t>
+  </si>
+  <si>
+    <t>https://cosmart.kz/upload/iblock/37a/mwks9xc8pf0zjfxkwfbm3ic4y942atdc.jpg</t>
+  </si>
+  <si>
+    <t>Перчатки Qualita universal S: купить товары для дома | Cosmart.kz</t>
+  </si>
+  <si>
+    <t>4600999011337</t>
+  </si>
+  <si>
+    <t>https://selvis.com/web/images/f0b69f0b-a46d-4c9f-a445-9181f7056682.png</t>
+  </si>
+  <si>
+    <t>Селвис - Салфетки хозяйственные QUALITA 5шт из вискозы, 4600999011337</t>
+  </si>
+  <si>
+    <t>4607068629714</t>
+  </si>
+  <si>
+    <t>https://m.onlinetrade.ru/img/items/m/prosto_chisto_mochalka_dlya_myt.pos._universalnaya_2sht._maxi_1632594_1.jpg</t>
+  </si>
+  <si>
+    <t>Мочалка для мытья посуды Просто Чисто универсальная 2шт. MAXI 4607068629714  — купить по низкой цене в интернет-магазине ОНЛАЙН ТРЕЙД.РУ</t>
+  </si>
+  <si>
+    <t>4607068627291</t>
+  </si>
+  <si>
+    <t>http://api.bonjour-dv.ru/public_v1/products/78368/images/36383.jpg?h=400</t>
+  </si>
+  <si>
+    <t>Пакеты для мусора Просто Чисто 35 л 30 шт. Купить в интернет-магазине Бонжур</t>
+  </si>
+  <si>
+    <t>4607068621817</t>
+  </si>
+  <si>
+    <t>https://ovdi.ru/upload/iblock/6af/ywrizzigirbkzlj87s9yvcnlvoflsdkx.jpg</t>
+  </si>
+  <si>
+    <t>Салфетки вискозные Просто Чисто улучшенные 3шт 4607068621817 - купить в  Москве</t>
+  </si>
+  <si>
+    <t>4607068621824</t>
+  </si>
+  <si>
+    <t>https://basket-10.wbbasket.ru/vol1549/part154948/154948451/images/big/1.webp</t>
+  </si>
+  <si>
+    <t>Салфетки вискозные улучшенные 5шт 4607068621824 ПРОСТО ЧИСТО 154948451  купить за 223 ₽ в интернет-магазине Wildberries</t>
+  </si>
+  <si>
+    <t>4870007340562</t>
+  </si>
+  <si>
+    <t>https://st.europharma.kz/cache/product/8739/x800_46274.jpeg</t>
+  </si>
+  <si>
+    <t>Сатып алу ФИТО-СОЛЬ д/ванн РОМАШКА ДЕТСКАЯ — Europharma</t>
+  </si>
+  <si>
+    <t>4870007340593</t>
+  </si>
+  <si>
+    <t>https://st.europharma.kz/cache/product/8741/x800_46275.jpeg</t>
+  </si>
+  <si>
+    <t>Купить BLISS Соль для ванны детская, череда, 450гр. в Алматы, цена 390.00  тг..</t>
+  </si>
+  <si>
+    <t>4640130799090</t>
+  </si>
+  <si>
+    <t>https://www.bigcom.ru/upload/iblock/511/0ue2wgbuptgt82xfp7bjcffqkoj50i7k.png</t>
+  </si>
+  <si>
+    <t>Вода мицеллярная пребиотическая</t>
+  </si>
+  <si>
+    <t>4640130799076</t>
+  </si>
+  <si>
+    <t>https://m.onlinetrade.ru/img/items/m/ceramed_enzimnaya_400_ml_3115292_1.jpg</t>
+  </si>
+  <si>
+    <t>Мицеллярная вода CERAMED энзимная, 400 мл 4640130799076 — купить по низкой  цене в интернет-магазине ОНЛАЙН ТРЕЙД.РУ</t>
+  </si>
+  <si>
+    <t>4640130799083</t>
+  </si>
+  <si>
+    <t>https://www.bigcom.ru/upload/iblock/31e/j42kllvsq3uzovoxv8ply2cgdyng4o2p.png</t>
+  </si>
+  <si>
+    <t>Гель для умывания Бессульфатный</t>
+  </si>
+  <si>
+    <t>4640130799175</t>
+  </si>
+  <si>
+    <t>https://m.onlinetrade.ru/img/items/m/ceramed_lipidovosstanavlivayushchiy_universalnyy_300_ml_3115297_1.jpg</t>
+  </si>
+  <si>
+    <t>Крем для лица и тела CERAMED липидовосстанавливающий универсальный, 300 мл  4640130799175 — купить по низкой цене в интернет-магазине ОНЛАЙН ТРЕЙД.РУ</t>
+  </si>
+  <si>
+    <t>4640130799069</t>
+  </si>
+  <si>
+    <t>https://m.onlinetrade.ru/img/items/m/ceramed_enzimnyy_400_ml_3115294_1.jpg</t>
+  </si>
+  <si>
+    <t>Крем-гель для умывания CERAMED энзимный, 400 мл 4640130799069 — купить по  низкой цене в интернет-магазине ОНЛАЙН ТРЕЙД.РУ</t>
+  </si>
+  <si>
+    <t>4630274250137</t>
+  </si>
+  <si>
+    <t>https://bigcom.ru/upload/iblock/7d9/1wxg8qa9n14k0tt8k2yz8ufcjq894z2k.png</t>
+  </si>
+  <si>
+    <t>Крем-маска для лица ночная Ревитализирующая Water Bank</t>
+  </si>
+  <si>
+    <t>4640130799106</t>
+  </si>
+  <si>
+    <t>https://static.onlinetrade.ru/img/items/m/mezo_krem_dlya_ruk_ceramed_s_lifting_effektom_45_75_ml_3115938_1.jpg</t>
+  </si>
+  <si>
+    <t>Мезо-крем для рук CERAMED с лифтинг эффектом 45+, 75 мл 4640130799106 —  купить по низкой цене в интернет-магазине ОНЛАЙН ТРЕЙД.РУ</t>
+  </si>
+  <si>
+    <t>4640130799168</t>
+  </si>
+  <si>
+    <t>https://static.onlinetrade.ru/img/items/b/ceramed_vosstanavlivayushchaya_nochnaya_30_ml_3115288_1.jpg</t>
+  </si>
+  <si>
+    <t>Сыворотка для лица CERAMED восстанавливающая, ночная, 30 мл 4640130799168 —  купить по низкой цене в интернет-магазине ОНЛАЙН ТРЕЙД.РУ</t>
+  </si>
+  <si>
+    <t>4640130799144</t>
+  </si>
+  <si>
+    <t>https://www.bigcom.ru/upload/iblock/838/rdxna0uv297bjljiq3ka3sgfqbj1em0x.png</t>
+  </si>
+  <si>
+    <t>Цера-крем для лица дневной ультраувлажняющий Baby Skin</t>
+  </si>
+  <si>
+    <t>4640130794118</t>
+  </si>
+  <si>
+    <t>https://irmag.ru/media/cache/catalog_element_popup/uploads/files/2022/12/21/2b5a780091680a78a44ed684566b78ab5ad85b06.jpeg</t>
+  </si>
+  <si>
+    <t>Цера-Крем для лица и тела Ceramed Ультраувлажняющий с Д-пантенолом (100 мл)  - IRMAG.RU</t>
+  </si>
+  <si>
+    <t>4650092452773</t>
+  </si>
+  <si>
+    <t>https://rostov-na-donu.top-1000.ru/foto/caf974fa774265dcb7c1d8a15b1988ff.webp</t>
+  </si>
+  <si>
+    <t>Цера-крем для лица и тела "Ceramed", ультраувлажняющий, 100 мл 4650092452773  в Ростове-на-Дону по цене 235 руб в интернет магазине "ТОП-1000"</t>
+  </si>
+  <si>
+    <t>4650092452797</t>
+  </si>
+  <si>
+    <t>https://irmag.ru/media/cache/catalog_element_popup/uploads/files/2022/12/21/5edb320f0ffc7ac0caabb0eccc95352fc24c9c67.jpeg</t>
+  </si>
+  <si>
+    <t>Цера-Крем для рук Ceramed Ультраувлажняющий (75 мл) - IRMAG.RU</t>
+  </si>
+  <si>
+    <t>4640130799137</t>
+  </si>
+  <si>
+    <t>https://m.onlinetrade.ru/img/items/m/maslo_dlya_dusha_ceramed_ultrauvlazhnyayushchee_400_ml_3115937_1.jpg</t>
+  </si>
+  <si>
+    <t>Масло для душа CERAMED Ультраувлажняющее, 400 мл 4640130799137 — купить по  низкой цене в интернет-магазине ОНЛАЙН ТРЕЙД.РУ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,7 +338,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -128,7 +348,7 @@
     <xdr:ext cx="952500" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -157,7 +377,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -167,10 +387,10 @@
     <xdr:ext cx="952500" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -196,7 +416,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -206,10 +426,10 @@
     <xdr:ext cx="952500" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -235,7 +455,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -245,10 +465,10 @@
     <xdr:ext cx="952500" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -258,6 +478,942 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -598,9 +1754,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
@@ -622,7 +1783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -633,7 +1794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -644,7 +1805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -655,7 +1816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="100" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -666,9 +1827,273 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>